--- a/СКПИР ЛР1.xlsx
+++ b/СКПИР ЛР1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programms\Work-Programms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E62E8-AB5D-475B-805A-44D230C64B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA037B-A6DD-49D0-9B64-3E7FAD032D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Часть 1" sheetId="1" r:id="rId1"/>
@@ -352,25 +352,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,22 +375,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +394,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4413,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -4426,424 +4423,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="12" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="12">
+      <c r="K6" s="1"/>
+      <c r="L6" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="4">
         <v>15</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="4">
         <v>14</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="4">
         <v>23</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="4">
         <v>20</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="4">
         <v>50</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="4">
         <v>18</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="4">
         <v>11</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="4">
         <v>40</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="4">
         <v>10</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="13" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="13">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="9">
         <f>MAX(F17:J17)</f>
         <v>0.91999164219370266</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="11"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="4">
         <v>4</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="11">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="10">
         <v>0.73553487067026568</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <v>0.5975024943811893</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="10">
         <v>0.46095400080910337</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="10">
         <v>0</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="11">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <v>0.51760132519093849</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>0.32248914781251337</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="10">
         <v>0.35235161055555692</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="11">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>0.18294897408447686</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <v>0.40089912219635132</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <v>0.45755516313045985</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="13">
         <v>0.567636353788885</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E17" s="11"/>
-      <c r="F17" s="20">
+      <c r="E17" s="4"/>
+      <c r="F17" s="14">
         <f t="shared" ref="F17:H17" si="0">SUM(F14:F16)</f>
         <v>0.91848384475474254</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>0.91850044738728975</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>0.91999164219370266</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="14">
         <f>SUM(I14:I16)</f>
         <v>0.91850916393956328</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="14">
         <f>SUM(J14:J16)</f>
         <v>0.91998796434444197</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="11"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E21" s="11">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="18">
-        <f>F14*F7</f>
+      <c r="F21" s="12">
+        <f t="shared" ref="F21:J23" si="1">F14*F7</f>
         <v>11.033023060053985</v>
       </c>
-      <c r="G21" s="18">
-        <f>G14*G7</f>
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="18">
-        <f>H14*H7</f>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
         <v>8.3650349213366511</v>
       </c>
-      <c r="I21" s="18">
-        <f>I14*I7</f>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
         <v>10.601942018609378</v>
       </c>
-      <c r="J21" s="18">
-        <f>J14*J7</f>
+      <c r="J21" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="11">
         <f>SUM(F21:J21)</f>
         <v>30.000000000000014</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E22" s="11">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="18">
-        <f>F15*F8</f>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="18">
-        <f>G15*G8</f>
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
         <v>10.35202650381877</v>
       </c>
-      <c r="H22" s="18">
-        <f>H15*H8</f>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
         <v>16.124457390625668</v>
       </c>
-      <c r="I22" s="18">
-        <f>I15*I8</f>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="18">
-        <f>J15*J8</f>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
         <v>3.523516105555569</v>
       </c>
-      <c r="K22" s="17">
-        <f t="shared" ref="K22:K23" si="1">SUM(F22:J22)</f>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22:K23" si="2">SUM(F22:J22)</f>
         <v>30.000000000000007</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="18">
-        <f>F16*F9</f>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
         <v>2.0124387149292455</v>
       </c>
-      <c r="G23" s="18">
-        <f>G16*G9</f>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
         <v>4.0089912219635133</v>
       </c>
-      <c r="H23" s="18">
-        <f>H16*H9</f>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="18">
-        <f>I16*I9</f>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
         <v>18.302206525218395</v>
       </c>
-      <c r="J23" s="18">
-        <f>J16*J9</f>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
         <v>5.6763635378888502</v>
       </c>
-      <c r="K23" s="17">
-        <f t="shared" si="1"/>
+      <c r="K23" s="11">
+        <f t="shared" si="2"/>
         <v>30.000000000000004</v>
       </c>
     </row>
@@ -4864,7 +4861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14574F4-D009-481E-8296-4C8EF3AE80AA}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -4881,209 +4878,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>110</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>110</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <f>C3*(C5+C6)*SIN(3.14/4)</f>
         <v>7619.5754523158448</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>86</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <f>H4*C12*(0.3/(2*0.35))</f>
         <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <f>1.02*10^7*((C12*C8^3*3.14*C3)/(C9*C6))</f>
         <v>9.8296302937233477</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <f>0.055*10^-16*C9*C3^3*(C11/C8)*(3.14*C4-2*C5*C7)</f>
         <v>3.160621529442896E-3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1.4618201916805858E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>0.01</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>0.06</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f>10^-3*H6*C12</f>
         <v>1.0535405098063434E-3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>45</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>350</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>3000</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <f>H7+H8</f>
         <v>4.2141620392492397E-3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <f>(C10/H4)*((2*0.35)/0.3)</f>
         <v>0.10718007476629872</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L14">
